--- a/Week1/day1/Whitney Brown Attendance Tracker.xlsx
+++ b/Week1/day1/Whitney Brown Attendance Tracker.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burnesbrown1/Documents/Coding Temple/Coding_Temple_Two/Week1/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77C40B-6A3B-4742-90E5-518F23BE11D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419DA69-D2CC-5E44-9B8D-276FAEE25979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="4920" windowWidth="19200" windowHeight="10300" xr2:uid="{6E70DF08-AB83-1445-828F-74CC069A822B}"/>
+    <workbookView xWindow="3740" yWindow="4720" windowWidth="20640" windowHeight="13600" xr2:uid="{6E70DF08-AB83-1445-828F-74CC069A822B}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="50">
   <si>
     <t>First Name</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Total Present</t>
+  </si>
+  <si>
+    <t>Total Absent</t>
   </si>
 </sst>
 </file>
@@ -577,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B9DEC-771A-724A-9A52-1A11BBAEA061}">
   <dimension ref="A1:CA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2813,12 +2819,266 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="D25">
+        <f>COUNTIF(D3:D22, "x")</f>
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:AH25" si="0">COUNTIF(E3:E22, "x")</f>
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="D26">
+        <f>COUNTIF(D3:D22, "-")</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:AH26" si="1">COUNTIF(E3:E22, "-")</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
